--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Thbs1-Itga3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Thbs1-Itga3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H2">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I2">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J2">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.582021999999999</v>
+        <v>15.025588</v>
       </c>
       <c r="N2">
-        <v>22.746066</v>
+        <v>45.076764</v>
       </c>
       <c r="O2">
-        <v>0.6904803268470485</v>
+        <v>0.6887877955888012</v>
       </c>
       <c r="P2">
-        <v>0.6904803268470484</v>
+        <v>0.6887877955888012</v>
       </c>
       <c r="Q2">
-        <v>115.1631779902193</v>
+        <v>521.5239402652227</v>
       </c>
       <c r="R2">
-        <v>1036.468601911974</v>
+        <v>4693.715462387004</v>
       </c>
       <c r="S2">
-        <v>0.009162878876254795</v>
+        <v>0.01114884184266643</v>
       </c>
       <c r="T2">
-        <v>0.009162878876254792</v>
+        <v>0.01114884184266643</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H3">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I3">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J3">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>0.52837</v>
       </c>
       <c r="O3">
-        <v>0.01603921708027116</v>
+        <v>0.008073667567513385</v>
       </c>
       <c r="P3">
-        <v>0.01603921708027115</v>
+        <v>0.008073667567513385</v>
       </c>
       <c r="Q3">
-        <v>2.675133728825555</v>
+        <v>6.113074228618889</v>
       </c>
       <c r="R3">
-        <v>24.07620355943</v>
+        <v>55.01766805757</v>
       </c>
       <c r="S3">
-        <v>0.0002128451711978127</v>
+        <v>0.0001306818201148969</v>
       </c>
       <c r="T3">
-        <v>0.0002128451711978126</v>
+        <v>0.0001306818201148969</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H4">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I4">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J4">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>3.025778</v>
+        <v>0.02854133333333334</v>
       </c>
       <c r="N4">
-        <v>9.077334</v>
+        <v>0.08562400000000001</v>
       </c>
       <c r="O4">
-        <v>0.2755518491514017</v>
+        <v>0.001308362911976013</v>
       </c>
       <c r="P4">
-        <v>0.2755518491514016</v>
+        <v>0.001308362911976013</v>
       </c>
       <c r="Q4">
-        <v>45.95848051784733</v>
+        <v>0.9906426703848891</v>
       </c>
       <c r="R4">
-        <v>413.626324660626</v>
+        <v>8.915784033464</v>
       </c>
       <c r="S4">
-        <v>0.003656654823797199</v>
+        <v>2.117739494202535E-05</v>
       </c>
       <c r="T4">
-        <v>0.003656654823797198</v>
+        <v>2.117739494202535E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H5">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I5">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J5">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.116695</v>
+        <v>6.345876333333334</v>
       </c>
       <c r="N5">
-        <v>0.350085</v>
+        <v>19.037629</v>
       </c>
       <c r="O5">
-        <v>0.01062719176248979</v>
+        <v>0.2909012393202723</v>
       </c>
       <c r="P5">
-        <v>0.01062719176248978</v>
+        <v>0.2909012393202723</v>
       </c>
       <c r="Q5">
-        <v>1.772477982201667</v>
+        <v>220.2593622156966</v>
       </c>
       <c r="R5">
-        <v>15.952301839815</v>
+        <v>1982.334259941269</v>
       </c>
       <c r="S5">
-        <v>0.0001410259889069899</v>
+        <v>0.00470857923120568</v>
       </c>
       <c r="T5">
-        <v>0.0001410259889069899</v>
+        <v>0.00470857923120568</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H6">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I6">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J6">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,33 +809,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.08017533333333333</v>
+        <v>0.1529056666666667</v>
       </c>
       <c r="N6">
-        <v>0.240526</v>
+        <v>0.458717</v>
       </c>
       <c r="O6">
-        <v>0.007301415158788918</v>
+        <v>0.007009346794040233</v>
       </c>
       <c r="P6">
-        <v>0.007301415158788916</v>
+        <v>0.007009346794040233</v>
       </c>
       <c r="Q6">
-        <v>1.217781507768222</v>
+        <v>5.307210990270778</v>
       </c>
       <c r="R6">
-        <v>10.960033569914</v>
+        <v>47.764898912437</v>
       </c>
       <c r="S6">
-        <v>9.689194626402919E-05</v>
+        <v>0.0001134545346587527</v>
       </c>
       <c r="T6">
-        <v>9.689194626402913E-05</v>
+        <v>0.0001134545346587527</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>95.50314333333334</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H7">
-        <v>286.50943</v>
+        <v>104.127161</v>
       </c>
       <c r="I7">
-        <v>0.08343911742543099</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J7">
-        <v>0.08343911742543099</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>7.582021999999999</v>
+        <v>0.08550400000000001</v>
       </c>
       <c r="N7">
-        <v>22.746066</v>
+        <v>0.256512</v>
       </c>
       <c r="O7">
-        <v>0.6904803268470485</v>
+        <v>0.003919587817396888</v>
       </c>
       <c r="P7">
-        <v>0.6904803268470484</v>
+        <v>0.003919587817396888</v>
       </c>
       <c r="Q7">
-        <v>724.1069338224867</v>
+        <v>2.967762924714667</v>
       </c>
       <c r="R7">
-        <v>6516.96240440238</v>
+        <v>26.709866322432</v>
       </c>
       <c r="S7">
-        <v>0.05761306907174085</v>
+        <v>6.344314597973474E-05</v>
       </c>
       <c r="T7">
-        <v>0.05761306907174084</v>
+        <v>6.344314597973472E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>286.50943</v>
       </c>
       <c r="I8">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J8">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1761233333333333</v>
+        <v>15.025588</v>
       </c>
       <c r="N8">
-        <v>0.52837</v>
+        <v>45.076764</v>
       </c>
       <c r="O8">
-        <v>0.01603921708027116</v>
+        <v>0.6887877955888012</v>
       </c>
       <c r="P8">
-        <v>0.01603921708027115</v>
+        <v>0.6887877955888012</v>
       </c>
       <c r="Q8">
-        <v>16.82033194767778</v>
+        <v>1434.990884431613</v>
       </c>
       <c r="R8">
-        <v>151.3829875291</v>
+        <v>12914.91795988452</v>
       </c>
       <c r="S8">
-        <v>0.001338298117372723</v>
+        <v>0.03067641805294689</v>
       </c>
       <c r="T8">
-        <v>0.001338298117372723</v>
+        <v>0.03067641805294689</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>286.50943</v>
       </c>
       <c r="I9">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J9">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>3.025778</v>
+        <v>0.1761233333333333</v>
       </c>
       <c r="N9">
-        <v>9.077334</v>
+        <v>0.52837</v>
       </c>
       <c r="O9">
-        <v>0.2755518491514017</v>
+        <v>0.008073667567513385</v>
       </c>
       <c r="P9">
-        <v>0.2755518491514016</v>
+        <v>0.008073667567513385</v>
       </c>
       <c r="Q9">
-        <v>288.9713100288467</v>
+        <v>16.82033194767778</v>
       </c>
       <c r="R9">
-        <v>2600.74179025962</v>
+        <v>151.3829875291</v>
       </c>
       <c r="S9">
-        <v>0.02299180309813846</v>
+        <v>0.000359575478990363</v>
       </c>
       <c r="T9">
-        <v>0.02299180309813845</v>
+        <v>0.000359575478990363</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>286.50943</v>
       </c>
       <c r="I10">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J10">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.116695</v>
+        <v>0.02854133333333334</v>
       </c>
       <c r="N10">
-        <v>0.350085</v>
+        <v>0.08562400000000001</v>
       </c>
       <c r="O10">
-        <v>0.01062719176248979</v>
+        <v>0.001308362911976013</v>
       </c>
       <c r="P10">
-        <v>0.01062719176248978</v>
+        <v>0.001308362911976013</v>
       </c>
       <c r="Q10">
-        <v>11.14473931128333</v>
+        <v>2.725787048257778</v>
       </c>
       <c r="R10">
-        <v>100.30265380155</v>
+        <v>24.53208343432</v>
       </c>
       <c r="S10">
-        <v>0.0008867235013729583</v>
+        <v>5.827032347232213E-05</v>
       </c>
       <c r="T10">
-        <v>0.000886723501372958</v>
+        <v>5.827032347232213E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1107,45 @@
         <v>286.50943</v>
       </c>
       <c r="I11">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J11">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.08017533333333333</v>
+        <v>6.345876333333334</v>
       </c>
       <c r="N11">
-        <v>0.240526</v>
+        <v>19.037629</v>
       </c>
       <c r="O11">
-        <v>0.007301415158788918</v>
+        <v>0.2909012393202723</v>
       </c>
       <c r="P11">
-        <v>0.007301415158788916</v>
+        <v>0.2909012393202723</v>
       </c>
       <c r="Q11">
-        <v>7.656996351131112</v>
+        <v>606.0511370379412</v>
       </c>
       <c r="R11">
-        <v>68.91296716018</v>
+        <v>5454.46023334147</v>
       </c>
       <c r="S11">
-        <v>0.0006092236368060104</v>
+        <v>0.01295581612604014</v>
       </c>
       <c r="T11">
-        <v>0.0006092236368060101</v>
+        <v>0.01295581612604014</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,51 +1163,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>402.0913113333333</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H12">
-        <v>1206.273934</v>
+        <v>286.50943</v>
       </c>
       <c r="I12">
-        <v>0.3512988470441011</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J12">
-        <v>0.351298847044101</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>7.582021999999999</v>
+        <v>0.1529056666666667</v>
       </c>
       <c r="N12">
-        <v>22.746066</v>
+        <v>0.458717</v>
       </c>
       <c r="O12">
-        <v>0.6904803268470485</v>
+        <v>0.007009346794040233</v>
       </c>
       <c r="P12">
-        <v>0.6904803268470484</v>
+        <v>0.007009346794040233</v>
       </c>
       <c r="Q12">
-        <v>3048.665168538182</v>
+        <v>14.60297180014556</v>
       </c>
       <c r="R12">
-        <v>27437.98651684364</v>
+        <v>131.42674620131</v>
       </c>
       <c r="S12">
-        <v>0.2425649427280022</v>
+        <v>0.000312174016306797</v>
       </c>
       <c r="T12">
-        <v>0.2425649427280021</v>
+        <v>0.000312174016306797</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>402.0913113333333</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H13">
-        <v>1206.273934</v>
+        <v>286.50943</v>
       </c>
       <c r="I13">
-        <v>0.3512988470441011</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J13">
-        <v>0.351298847044101</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1243,28 +1243,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.1761233333333333</v>
+        <v>0.08550400000000001</v>
       </c>
       <c r="N13">
-        <v>0.52837</v>
+        <v>0.256512</v>
       </c>
       <c r="O13">
-        <v>0.01603921708027116</v>
+        <v>0.003919587817396888</v>
       </c>
       <c r="P13">
-        <v>0.01603921708027115</v>
+        <v>0.003919587817396888</v>
       </c>
       <c r="Q13">
-        <v>70.81766205639777</v>
+        <v>8.165900767573335</v>
       </c>
       <c r="R13">
-        <v>637.3589585075799</v>
+        <v>73.49310690816</v>
       </c>
       <c r="S13">
-        <v>0.00563455846778931</v>
+        <v>0.0001745659769986487</v>
       </c>
       <c r="T13">
-        <v>0.005634558467789308</v>
+        <v>0.0001745659769986487</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H14">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I14">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J14">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.025778</v>
+        <v>15.025588</v>
       </c>
       <c r="N14">
-        <v>9.077334</v>
+        <v>45.076764</v>
       </c>
       <c r="O14">
-        <v>0.2755518491514017</v>
+        <v>0.6887877955888012</v>
       </c>
       <c r="P14">
-        <v>0.2755518491514016</v>
+        <v>0.6887877955888012</v>
       </c>
       <c r="Q14">
-        <v>1216.639043823551</v>
+        <v>15448.2902657442</v>
       </c>
       <c r="R14">
-        <v>10949.75139441195</v>
+        <v>139034.6123916978</v>
       </c>
       <c r="S14">
-        <v>0.0968010469077575</v>
+        <v>0.3302447531455544</v>
       </c>
       <c r="T14">
-        <v>0.09680104690775744</v>
+        <v>0.3302447531455545</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H15">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I15">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J15">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,28 +1367,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.116695</v>
+        <v>0.1761233333333333</v>
       </c>
       <c r="N15">
-        <v>0.350085</v>
+        <v>0.52837</v>
       </c>
       <c r="O15">
-        <v>0.01062719176248979</v>
+        <v>0.008073667567513385</v>
       </c>
       <c r="P15">
-        <v>0.01062719176248978</v>
+        <v>0.008073667567513385</v>
       </c>
       <c r="Q15">
-        <v>46.92204557604333</v>
+        <v>181.0780633612311</v>
       </c>
       <c r="R15">
-        <v>422.29841018439</v>
+        <v>1629.70257025108</v>
       </c>
       <c r="S15">
-        <v>0.003733320213479231</v>
+        <v>0.003870983733870439</v>
       </c>
       <c r="T15">
-        <v>0.003733320213479229</v>
+        <v>0.00387098373387044</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,61 +1411,61 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H16">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I16">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J16">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.08017533333333333</v>
+        <v>0.02854133333333334</v>
       </c>
       <c r="N16">
-        <v>0.240526</v>
+        <v>0.08562400000000001</v>
       </c>
       <c r="O16">
-        <v>0.007301415158788918</v>
+        <v>0.001308362911976013</v>
       </c>
       <c r="P16">
-        <v>0.007301415158788916</v>
+        <v>0.001308362911976013</v>
       </c>
       <c r="Q16">
-        <v>32.23780491658711</v>
+        <v>29.34426272733511</v>
       </c>
       <c r="R16">
-        <v>290.140244249284</v>
+        <v>264.098364546016</v>
       </c>
       <c r="S16">
-        <v>0.002564978727072869</v>
+        <v>0.0006273049401535336</v>
       </c>
       <c r="T16">
-        <v>0.002564978727072868</v>
+        <v>0.0006273049401535338</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
         <v>3</v>
       </c>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>37.14495166666666</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H17">
-        <v>111.434855</v>
+        <v>3084.396484</v>
       </c>
       <c r="I17">
-        <v>0.03245277459674146</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J17">
-        <v>0.03245277459674146</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,33 +1491,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.582021999999999</v>
+        <v>6.345876333333334</v>
       </c>
       <c r="N17">
-        <v>22.746066</v>
+        <v>19.037629</v>
       </c>
       <c r="O17">
-        <v>0.6904803268470485</v>
+        <v>0.2909012393202723</v>
       </c>
       <c r="P17">
-        <v>0.6904803268470484</v>
+        <v>0.2909012393202723</v>
       </c>
       <c r="Q17">
-        <v>281.6338407256033</v>
+        <v>6524.399550144049</v>
       </c>
       <c r="R17">
-        <v>2534.70456653043</v>
+        <v>58719.59595129644</v>
       </c>
       <c r="S17">
-        <v>0.02240800241065163</v>
+        <v>0.1394748986325116</v>
       </c>
       <c r="T17">
-        <v>0.02240800241065163</v>
+        <v>0.1394748986325117</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>37.14495166666666</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H18">
-        <v>111.434855</v>
+        <v>3084.396484</v>
       </c>
       <c r="I18">
-        <v>0.03245277459674146</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J18">
-        <v>0.03245277459674146</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1553,33 +1553,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.1761233333333333</v>
+        <v>0.1529056666666667</v>
       </c>
       <c r="N18">
-        <v>0.52837</v>
+        <v>0.458717</v>
       </c>
       <c r="O18">
-        <v>0.01603921708027116</v>
+        <v>0.007009346794040233</v>
       </c>
       <c r="P18">
-        <v>0.01603921708027115</v>
+        <v>0.007009346794040233</v>
       </c>
       <c r="Q18">
-        <v>6.542092704038888</v>
+        <v>157.2072335501142</v>
       </c>
       <c r="R18">
-        <v>58.87883433635</v>
+        <v>1414.865101951028</v>
       </c>
       <c r="S18">
-        <v>0.0005205170966142454</v>
+        <v>0.003360686726062885</v>
       </c>
       <c r="T18">
-        <v>0.0005205170966142453</v>
+        <v>0.003360686726062885</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>37.14495166666666</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H19">
-        <v>111.434855</v>
+        <v>3084.396484</v>
       </c>
       <c r="I19">
-        <v>0.03245277459674146</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J19">
-        <v>0.03245277459674146</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>3.025778</v>
+        <v>0.08550400000000001</v>
       </c>
       <c r="N19">
-        <v>9.077334</v>
+        <v>0.256512</v>
       </c>
       <c r="O19">
-        <v>0.2755518491514017</v>
+        <v>0.003919587817396888</v>
       </c>
       <c r="P19">
-        <v>0.2755518491514016</v>
+        <v>0.003919587817396888</v>
       </c>
       <c r="Q19">
-        <v>112.3923775640633</v>
+        <v>87.90941232264534</v>
       </c>
       <c r="R19">
-        <v>1011.53139807657</v>
+        <v>791.184710903808</v>
       </c>
       <c r="S19">
-        <v>0.008942422050225746</v>
+        <v>0.001879277361588611</v>
       </c>
       <c r="T19">
-        <v>0.00894242205022574</v>
+        <v>0.001879277361588611</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H20">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I20">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J20">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.116695</v>
+        <v>15.025588</v>
       </c>
       <c r="N20">
-        <v>0.350085</v>
+        <v>45.076764</v>
       </c>
       <c r="O20">
-        <v>0.01062719176248979</v>
+        <v>0.6887877955888012</v>
       </c>
       <c r="P20">
-        <v>0.01062719176248978</v>
+        <v>0.6887877955888012</v>
       </c>
       <c r="Q20">
-        <v>4.334630134741666</v>
+        <v>718.8258428370319</v>
       </c>
       <c r="R20">
-        <v>39.011671212675</v>
+        <v>6469.432585533287</v>
       </c>
       <c r="S20">
-        <v>0.0003448818588644287</v>
+        <v>0.01536664957343258</v>
       </c>
       <c r="T20">
-        <v>0.0003448818588644285</v>
+        <v>0.01536664957343258</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H21">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I21">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J21">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1739,33 +1739,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.08017533333333333</v>
+        <v>0.1761233333333333</v>
       </c>
       <c r="N21">
-        <v>0.240526</v>
+        <v>0.52837</v>
       </c>
       <c r="O21">
-        <v>0.007301415158788918</v>
+        <v>0.008073667567513385</v>
       </c>
       <c r="P21">
-        <v>0.007301415158788916</v>
+        <v>0.008073667567513385</v>
       </c>
       <c r="Q21">
-        <v>2.978108881525555</v>
+        <v>8.425760344726667</v>
       </c>
       <c r="R21">
-        <v>26.80297993373</v>
+        <v>75.83184310254001</v>
       </c>
       <c r="S21">
-        <v>0.000236951180385408</v>
+        <v>0.0001801211070766875</v>
       </c>
       <c r="T21">
-        <v>0.0002369511803854079</v>
+        <v>0.0001801211070766875</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,51 +1783,51 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>402.444082</v>
+        <v>47.840114</v>
       </c>
       <c r="H22">
-        <v>1207.332246</v>
+        <v>143.520342</v>
       </c>
       <c r="I22">
-        <v>0.3516070554658648</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J22">
-        <v>0.3516070554658648</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>7.582021999999999</v>
+        <v>0.02854133333333334</v>
       </c>
       <c r="N22">
-        <v>22.746066</v>
+        <v>0.08562400000000001</v>
       </c>
       <c r="O22">
-        <v>0.6904803268470485</v>
+        <v>0.001308362911976013</v>
       </c>
       <c r="P22">
-        <v>0.6904803268470484</v>
+        <v>0.001308362911976013</v>
       </c>
       <c r="Q22">
-        <v>3051.339883493803</v>
+        <v>1.365420640378667</v>
       </c>
       <c r="R22">
-        <v>27462.05895144423</v>
+        <v>12.288785763408</v>
       </c>
       <c r="S22">
-        <v>0.2427777545797987</v>
+        <v>2.918918498842534E-05</v>
       </c>
       <c r="T22">
-        <v>0.2427777545797986</v>
+        <v>2.918918498842534E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,61 +1845,61 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>402.444082</v>
+        <v>47.840114</v>
       </c>
       <c r="H23">
-        <v>1207.332246</v>
+        <v>143.520342</v>
       </c>
       <c r="I23">
-        <v>0.3516070554658648</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J23">
-        <v>0.3516070554658648</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>0.1761233333333333</v>
+        <v>6.345876333333334</v>
       </c>
       <c r="N23">
-        <v>0.52837</v>
+        <v>19.037629</v>
       </c>
       <c r="O23">
-        <v>0.01603921708027116</v>
+        <v>0.2909012393202723</v>
       </c>
       <c r="P23">
-        <v>0.01603921708027115</v>
+        <v>0.2909012393202723</v>
       </c>
       <c r="Q23">
-        <v>70.87979320211333</v>
+        <v>303.5874472165687</v>
       </c>
       <c r="R23">
-        <v>637.91813881902</v>
+        <v>2732.287024949118</v>
       </c>
       <c r="S23">
-        <v>0.005639501889571947</v>
+        <v>0.006489919585887261</v>
       </c>
       <c r="T23">
-        <v>0.005639501889571946</v>
+        <v>0.006489919585887261</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
         <v>3</v>
       </c>
@@ -1907,51 +1907,51 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>402.444082</v>
+        <v>47.840114</v>
       </c>
       <c r="H24">
-        <v>1207.332246</v>
+        <v>143.520342</v>
       </c>
       <c r="I24">
-        <v>0.3516070554658648</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J24">
-        <v>0.3516070554658648</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>3.025778</v>
+        <v>0.1529056666666667</v>
       </c>
       <c r="N24">
-        <v>9.077334</v>
+        <v>0.458717</v>
       </c>
       <c r="O24">
-        <v>0.2755518491514017</v>
+        <v>0.007009346794040233</v>
       </c>
       <c r="P24">
-        <v>0.2755518491514016</v>
+        <v>0.007009346794040233</v>
       </c>
       <c r="Q24">
-        <v>1217.706449545796</v>
+        <v>7.315024524579333</v>
       </c>
       <c r="R24">
-        <v>10959.35804591216</v>
+        <v>65.835220721214</v>
       </c>
       <c r="S24">
-        <v>0.09688597430829854</v>
+        <v>0.0001563764291592953</v>
       </c>
       <c r="T24">
-        <v>0.0968859743082985</v>
+        <v>0.0001563764291592953</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>402.444082</v>
+        <v>47.840114</v>
       </c>
       <c r="H25">
-        <v>1207.332246</v>
+        <v>143.520342</v>
       </c>
       <c r="I25">
-        <v>0.3516070554658648</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J25">
-        <v>0.3516070554658648</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1987,28 +1987,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.116695</v>
+        <v>0.08550400000000001</v>
       </c>
       <c r="N25">
-        <v>0.350085</v>
+        <v>0.256512</v>
       </c>
       <c r="O25">
-        <v>0.01062719176248979</v>
+        <v>0.003919587817396888</v>
       </c>
       <c r="P25">
-        <v>0.01062719176248978</v>
+        <v>0.003919587817396888</v>
       </c>
       <c r="Q25">
-        <v>46.96321214899</v>
+        <v>4.090521107456</v>
       </c>
       <c r="R25">
-        <v>422.66890934091</v>
+        <v>36.814689967104</v>
       </c>
       <c r="S25">
-        <v>0.003736595603480129</v>
+        <v>8.744483111920677E-05</v>
       </c>
       <c r="T25">
-        <v>0.003736595603480128</v>
+        <v>8.744483111920675E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,51 +2031,51 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H26">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I26">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J26">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.08017533333333333</v>
+        <v>15.025588</v>
       </c>
       <c r="N26">
-        <v>0.240526</v>
+        <v>45.076764</v>
       </c>
       <c r="O26">
-        <v>0.007301415158788918</v>
+        <v>0.6887877955888012</v>
       </c>
       <c r="P26">
-        <v>0.007301415158788916</v>
+        <v>0.6887877955888012</v>
       </c>
       <c r="Q26">
-        <v>32.26608842237733</v>
+        <v>6434.471453065764</v>
       </c>
       <c r="R26">
-        <v>290.394795801396</v>
+        <v>57910.24307759188</v>
       </c>
       <c r="S26">
-        <v>0.002567229084715602</v>
+        <v>0.1375524669776429</v>
       </c>
       <c r="T26">
-        <v>0.002567229084715601</v>
+        <v>0.1375524669776429</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,7 +2084,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,51 +2093,51 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>192.2123056666667</v>
+        <v>428.234253</v>
       </c>
       <c r="H27">
-        <v>576.6369169999999</v>
+        <v>1284.702759</v>
       </c>
       <c r="I27">
-        <v>0.1679319086614409</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J27">
-        <v>0.1679319086614409</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M27">
-        <v>7.582021999999999</v>
+        <v>0.1761233333333333</v>
       </c>
       <c r="N27">
-        <v>22.746066</v>
+        <v>0.52837</v>
       </c>
       <c r="O27">
-        <v>0.6904803268470485</v>
+        <v>0.008073667567513385</v>
       </c>
       <c r="P27">
-        <v>0.6904803268470484</v>
+        <v>0.008073667567513385</v>
       </c>
       <c r="Q27">
-        <v>1457.357930235391</v>
+        <v>75.42204408587</v>
       </c>
       <c r="R27">
-        <v>13116.22137211852</v>
+        <v>678.79839677283</v>
       </c>
       <c r="S27">
-        <v>0.1159536791806004</v>
+        <v>0.001612329513648699</v>
       </c>
       <c r="T27">
-        <v>0.1159536791806004</v>
+        <v>0.001612329513648699</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,7 +2146,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,51 +2155,51 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>192.2123056666667</v>
+        <v>428.234253</v>
       </c>
       <c r="H28">
-        <v>576.6369169999999</v>
+        <v>1284.702759</v>
       </c>
       <c r="I28">
-        <v>0.1679319086614409</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J28">
-        <v>0.1679319086614409</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M28">
-        <v>0.1761233333333333</v>
+        <v>0.02854133333333334</v>
       </c>
       <c r="N28">
-        <v>0.52837</v>
+        <v>0.08562400000000001</v>
       </c>
       <c r="O28">
-        <v>0.01603921708027116</v>
+        <v>0.001308362911976013</v>
       </c>
       <c r="P28">
-        <v>0.01603921708027115</v>
+        <v>0.001308362911976013</v>
       </c>
       <c r="Q28">
-        <v>33.85307198169888</v>
+        <v>12.222376559624</v>
       </c>
       <c r="R28">
-        <v>304.67764783529</v>
+        <v>110.001389036616</v>
       </c>
       <c r="S28">
-        <v>0.002693496337725119</v>
+        <v>0.0002612830067503004</v>
       </c>
       <c r="T28">
-        <v>0.002693496337725118</v>
+        <v>0.0002612830067503004</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>192.2123056666667</v>
+        <v>428.234253</v>
       </c>
       <c r="H29">
-        <v>576.6369169999999</v>
+        <v>1284.702759</v>
       </c>
       <c r="I29">
-        <v>0.1679319086614409</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J29">
-        <v>0.1679319086614409</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,33 +2235,33 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>3.025778</v>
+        <v>6.345876333333334</v>
       </c>
       <c r="N29">
-        <v>9.077334</v>
+        <v>19.037629</v>
       </c>
       <c r="O29">
-        <v>0.2755518491514017</v>
+        <v>0.2909012393202723</v>
       </c>
       <c r="P29">
-        <v>0.2755518491514016</v>
+        <v>0.2909012393202723</v>
       </c>
       <c r="Q29">
-        <v>581.5917658154754</v>
+        <v>2717.521611235379</v>
       </c>
       <c r="R29">
-        <v>5234.325892339278</v>
+        <v>24457.69450111841</v>
       </c>
       <c r="S29">
-        <v>0.04627394796318434</v>
+        <v>0.05809362966594312</v>
       </c>
       <c r="T29">
-        <v>0.04627394796318432</v>
+        <v>0.05809362966594312</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>192.2123056666667</v>
+        <v>428.234253</v>
       </c>
       <c r="H30">
-        <v>576.6369169999999</v>
+        <v>1284.702759</v>
       </c>
       <c r="I30">
-        <v>0.1679319086614409</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J30">
-        <v>0.1679319086614409</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -2297,33 +2297,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M30">
-        <v>0.116695</v>
+        <v>0.1529056666666667</v>
       </c>
       <c r="N30">
-        <v>0.350085</v>
+        <v>0.458717</v>
       </c>
       <c r="O30">
-        <v>0.01062719176248979</v>
+        <v>0.007009346794040233</v>
       </c>
       <c r="P30">
-        <v>0.01062719176248978</v>
+        <v>0.007009346794040233</v>
       </c>
       <c r="Q30">
-        <v>22.43021500977166</v>
+        <v>65.47944394446701</v>
       </c>
       <c r="R30">
-        <v>201.871935087945</v>
+        <v>589.3149955002029</v>
       </c>
       <c r="S30">
-        <v>0.001784644596386052</v>
+        <v>0.001399782269077332</v>
       </c>
       <c r="T30">
-        <v>0.001784644596386052</v>
+        <v>0.001399782269077332</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>192.2123056666667</v>
+        <v>428.234253</v>
       </c>
       <c r="H31">
-        <v>576.6369169999999</v>
+        <v>1284.702759</v>
       </c>
       <c r="I31">
-        <v>0.1679319086614409</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J31">
-        <v>0.1679319086614409</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -2359,28 +2359,400 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>0.08017533333333333</v>
+        <v>0.08550400000000001</v>
       </c>
       <c r="N31">
-        <v>0.240526</v>
+        <v>0.256512</v>
       </c>
       <c r="O31">
-        <v>0.007301415158788918</v>
+        <v>0.003919587817396888</v>
       </c>
       <c r="P31">
-        <v>0.007301415158788916</v>
+        <v>0.003919587817396888</v>
       </c>
       <c r="Q31">
-        <v>15.41068567759356</v>
+        <v>36.61574156851201</v>
       </c>
       <c r="R31">
-        <v>138.696171098342</v>
+        <v>329.541674116608</v>
       </c>
       <c r="S31">
-        <v>0.001226140583545001</v>
+        <v>0.0007827504744876792</v>
       </c>
       <c r="T31">
-        <v>0.001226140583545</v>
+        <v>0.0007827504744876791</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>509.945048</v>
+      </c>
+      <c r="H32">
+        <v>1529.835144</v>
+      </c>
+      <c r="I32">
+        <v>0.2378071548967224</v>
+      </c>
+      <c r="J32">
+        <v>0.2378071548967224</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>15.025588</v>
+      </c>
+      <c r="N32">
+        <v>45.076764</v>
+      </c>
+      <c r="O32">
+        <v>0.6887877955888012</v>
+      </c>
+      <c r="P32">
+        <v>0.6887877955888012</v>
+      </c>
+      <c r="Q32">
+        <v>7662.224193888224</v>
+      </c>
+      <c r="R32">
+        <v>68960.01774499402</v>
+      </c>
+      <c r="S32">
+        <v>0.163798665996558</v>
+      </c>
+      <c r="T32">
+        <v>0.163798665996558</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>509.945048</v>
+      </c>
+      <c r="H33">
+        <v>1529.835144</v>
+      </c>
+      <c r="I33">
+        <v>0.2378071548967224</v>
+      </c>
+      <c r="J33">
+        <v>0.2378071548967224</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M33">
+        <v>0.1761233333333333</v>
+      </c>
+      <c r="N33">
+        <v>0.52837</v>
+      </c>
+      <c r="O33">
+        <v>0.008073667567513385</v>
+      </c>
+      <c r="P33">
+        <v>0.008073667567513385</v>
+      </c>
+      <c r="Q33">
+        <v>89.81322167058667</v>
+      </c>
+      <c r="R33">
+        <v>808.3189950352801</v>
+      </c>
+      <c r="S33">
+        <v>0.001919975913812299</v>
+      </c>
+      <c r="T33">
+        <v>0.001919975913812299</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>509.945048</v>
+      </c>
+      <c r="H34">
+        <v>1529.835144</v>
+      </c>
+      <c r="I34">
+        <v>0.2378071548967224</v>
+      </c>
+      <c r="J34">
+        <v>0.2378071548967224</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.02854133333333334</v>
+      </c>
+      <c r="N34">
+        <v>0.08562400000000001</v>
+      </c>
+      <c r="O34">
+        <v>0.001308362911976013</v>
+      </c>
+      <c r="P34">
+        <v>0.001308362911976013</v>
+      </c>
+      <c r="Q34">
+        <v>14.55451159665067</v>
+      </c>
+      <c r="R34">
+        <v>130.990604369856</v>
+      </c>
+      <c r="S34">
+        <v>0.0003111380616694065</v>
+      </c>
+      <c r="T34">
+        <v>0.0003111380616694065</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>509.945048</v>
+      </c>
+      <c r="H35">
+        <v>1529.835144</v>
+      </c>
+      <c r="I35">
+        <v>0.2378071548967224</v>
+      </c>
+      <c r="J35">
+        <v>0.2378071548967224</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>6.345876333333334</v>
+      </c>
+      <c r="N35">
+        <v>19.037629</v>
+      </c>
+      <c r="O35">
+        <v>0.2909012393202723</v>
+      </c>
+      <c r="P35">
+        <v>0.2909012393202723</v>
+      </c>
+      <c r="Q35">
+        <v>3236.048211403731</v>
+      </c>
+      <c r="R35">
+        <v>29124.43390263358</v>
+      </c>
+      <c r="S35">
+        <v>0.06917839607868451</v>
+      </c>
+      <c r="T35">
+        <v>0.06917839607868451</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>509.945048</v>
+      </c>
+      <c r="H36">
+        <v>1529.835144</v>
+      </c>
+      <c r="I36">
+        <v>0.2378071548967224</v>
+      </c>
+      <c r="J36">
+        <v>0.2378071548967224</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M36">
+        <v>0.1529056666666667</v>
+      </c>
+      <c r="N36">
+        <v>0.458717</v>
+      </c>
+      <c r="O36">
+        <v>0.007009346794040233</v>
+      </c>
+      <c r="P36">
+        <v>0.007009346794040233</v>
+      </c>
+      <c r="Q36">
+        <v>77.97348752780533</v>
+      </c>
+      <c r="R36">
+        <v>701.761387750248</v>
+      </c>
+      <c r="S36">
+        <v>0.00166687281877517</v>
+      </c>
+      <c r="T36">
+        <v>0.00166687281877517</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>509.945048</v>
+      </c>
+      <c r="H37">
+        <v>1529.835144</v>
+      </c>
+      <c r="I37">
+        <v>0.2378071548967224</v>
+      </c>
+      <c r="J37">
+        <v>0.2378071548967224</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M37">
+        <v>0.08550400000000001</v>
+      </c>
+      <c r="N37">
+        <v>0.256512</v>
+      </c>
+      <c r="O37">
+        <v>0.003919587817396888</v>
+      </c>
+      <c r="P37">
+        <v>0.003919587817396888</v>
+      </c>
+      <c r="Q37">
+        <v>43.60234138419201</v>
+      </c>
+      <c r="R37">
+        <v>392.4210724577281</v>
+      </c>
+      <c r="S37">
+        <v>0.0009321060272230077</v>
+      </c>
+      <c r="T37">
+        <v>0.0009321060272230076</v>
       </c>
     </row>
   </sheetData>
